--- a/学习日记.xlsx
+++ b/学习日记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDF67AA0-D9C1-4F37-9A29-94D00B8EF8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424041F9-FBAA-45D5-B1E7-DB76F71BF3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{81A5690A-08F3-4C44-A3A9-234CEDFE714D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>20日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>Oracle索引查询优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>httpclient使用详情及接收转发文件流</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -727,10 +731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA94F6F-69CE-44EB-A7B9-7C349218D4B8}">
-  <dimension ref="A1:A26"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -841,6 +845,16 @@
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/学习日记.xlsx
+++ b/学习日记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424041F9-FBAA-45D5-B1E7-DB76F71BF3AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A920E187-0F1C-4D65-BBAA-D7F0F172F77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{81A5690A-08F3-4C44-A3A9-234CEDFE714D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>20日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,14 @@
   </si>
   <si>
     <t>httpclient使用详情及接收转发文件流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法—动态规划</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,10 +739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA94F6F-69CE-44EB-A7B9-7C349218D4B8}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -855,6 +863,16 @@
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/学习日记.xlsx
+++ b/学习日记.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A920E187-0F1C-4D65-BBAA-D7F0F172F77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CA722E-402B-4231-BD87-E199F7002673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{81A5690A-08F3-4C44-A3A9-234CEDFE714D}"/>
   </bookViews>
   <sheets>
     <sheet name="2022-01" sheetId="1" r:id="rId1"/>
     <sheet name="2022-02" sheetId="3" r:id="rId2"/>
-    <sheet name="学习计划安排" sheetId="2" r:id="rId3"/>
+    <sheet name="2022-03" sheetId="4" r:id="rId3"/>
+    <sheet name="学习计划安排" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>20日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +119,6 @@
     <t>java8新特性 lambda Stream map(函数式编程)</t>
   </si>
   <si>
-    <t>16日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>mysql列名小写_MySQL表名、列名区分大小写详解</t>
   </si>
   <si>
@@ -134,10 +131,6 @@
     <t>Java中的有序集合</t>
   </si>
   <si>
-    <t>17日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Spring事务方法与非事务方法执行相互调用不回滚&amp;&amp;使用AopContext.currentProxy()代理调用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,18 +142,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>static继承，jvm角度看继承</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kettle使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -169,20 +154,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库索引在什么场景下会失效？</t>
   </si>
   <si>
     <t>SQL内、外连接查询详解</t>
   </si>
   <si>
-    <t>23日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sql创建索引</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,11 +176,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>28日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>算法—动态规划</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java项目应用分层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>double转BigDecimal导致精度丢失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle中的wm_concat()函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>redis多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>equals()和==的区别，hashcode()作用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重载和重写的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>静态方法和实例方法相互调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>continue、break 和 return 的区别</t>
+  </si>
+  <si>
+    <t>char和short区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM vs JDK vs JRE</t>
+  </si>
+  <si>
+    <t>使用Stream流递归实现遍历树形结构</t>
+  </si>
+  <si>
+    <t>string相加创建对象问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@Controller和@RestController的区别？</t>
+  </si>
+  <si>
+    <t>Spring Cloud 入门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ribbon 与 Nginx 区别与使用场景</t>
+  </si>
+  <si>
+    <t>Ribbon 和 Feign 的区别</t>
+  </si>
+  <si>
+    <t>springcloud简单使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反向代理</t>
+  </si>
+  <si>
+    <t>描述一下 JVM 加载 class 文件的原理机制？ </t>
+  </si>
+  <si>
+    <t>如何解决OutOfMemoryError</t>
+  </si>
+  <si>
+    <t>手绘6张图彻底搞懂动态代理</t>
+  </si>
+  <si>
+    <t>待学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring AOP——Spring 中面向切面编程 </t>
+  </si>
+  <si>
+    <t>图文详解 Spring AOP，看完必懂！</t>
+  </si>
+  <si>
+    <t>十分钟彻底掌握缓存击穿、缓存穿透、缓存雪崩</t>
+  </si>
+  <si>
+    <t>SpringBoot微服务技术中进程间通信原理</t>
+  </si>
+  <si>
+    <t>静态代理和动态代理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为什么禁止超过三张表 join，原理是什么？</t>
+  </si>
+  <si>
+    <t>String.intern()方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java常量池理解与总结</t>
+  </si>
+  <si>
+    <t>Bean容器生命周期，好像人的一生。。</t>
+  </si>
+  <si>
+    <t>你能说说Spring框架中Bean的生命周期吗？</t>
+  </si>
+  <si>
+    <t>你知道阿里规范为什么在 @Transactional 事务注解中指定 rollbackFor吗？</t>
+  </si>
+  <si>
+    <t>OracleJDK与OpenJDK之间的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oracle LEFT JOIN中ON多条件与WHERE条件的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MVCC详解</t>
+  </si>
+  <si>
+    <t>带你读懂Spring 事务——事务的传播机制</t>
+  </si>
+  <si>
+    <t>Spring五个事务隔离级别和七个事务传播行为</t>
+  </si>
+  <si>
+    <t>MVCC 原理</t>
+  </si>
+  <si>
+    <t>MySQL——事务(Transaction)详解</t>
+  </si>
+  <si>
+    <t>事务的隔离级别</t>
+  </si>
+  <si>
+    <t>BigDecimal保留两位小数及格式化成百分比</t>
+  </si>
+  <si>
+    <t>BigDecimal千分位使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calendar获取当月的第一天或最后一天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Calendar获取上一月份日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -211,7 +338,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +369,15 @@
       <name val="Segoe UI Emoji"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -251,7 +387,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -268,6 +404,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF21759B"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -277,7 +422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -289,6 +434,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -607,7 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F37E3-DAC3-427D-B0CB-3296DC59712C}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -739,140 +899,399 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA94F6F-69CE-44EB-A7B9-7C349218D4B8}">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>21</v>
+      <c r="A1" s="4">
+        <v>44608</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
+      <c r="A7" s="4">
+        <v>44609</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>30</v>
+      <c r="A12" s="4">
+        <v>44610</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
+      <c r="A15" s="4">
+        <v>44613</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>35</v>
+      <c r="A19" s="4">
+        <v>44614</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>38</v>
+      <c r="A23" s="4">
+        <v>44615</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>12</v>
+      <c r="A28" s="4">
+        <v>44616</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>43</v>
+      <c r="A31" s="4">
+        <v>44620</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>44622</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>44624</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
+        <v>44628</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <v>44629</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
+        <v>44632</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
+        <v>44634</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
+        <v>44635</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
+        <v>44636</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
+        <v>44637</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -882,13 +1301,62 @@
     <hyperlink ref="A4" r:id="rId2" display="https://www.cnblogs.com/fhblikesky/p/13692643.html" xr:uid="{C83A520B-D11C-48A1-9DB5-C5B6BFB8016B}"/>
     <hyperlink ref="A20" r:id="rId3" xr:uid="{EE82D1E4-6734-42C7-B701-895AC2889D64}"/>
     <hyperlink ref="A21" r:id="rId4" xr:uid="{3A85F212-9068-44D3-BFE8-64CFF253478B}"/>
+    <hyperlink ref="A41" r:id="rId5" display="https://www.cnblogs.com/afei1013/p/13467754.html" xr:uid="{7C5DEBE7-D4BE-4933-AFEE-2578DD2FBDE5}"/>
+    <hyperlink ref="A42" r:id="rId6" xr:uid="{6A456B60-6E41-4A03-A09C-D04BD3418EF0}"/>
+    <hyperlink ref="A52" r:id="rId7" display="https://blog.csdn.net/weixin_36380516/article/details/115258360" xr:uid="{4BB4C358-5FFE-4343-8BC7-D61430219C79}"/>
+    <hyperlink ref="A55" r:id="rId8" display="https://www.cnblogs.com/clwydjgs/p/9255046.html" xr:uid="{C2D54314-99BD-4A10-B855-30712C355E67}"/>
+    <hyperlink ref="A56" r:id="rId9" xr:uid="{FC5936BD-1C7D-4E2F-B64C-383231B93FDE}"/>
+    <hyperlink ref="A57" r:id="rId10" xr:uid="{2948A3BF-4713-4475-B580-163DCF56F6DD}"/>
+    <hyperlink ref="A58" r:id="rId11" xr:uid="{CA2EE4FE-98B4-414C-8B62-F9B08AEC7AC0}"/>
+    <hyperlink ref="A59" r:id="rId12" xr:uid="{4ACC0D86-36DC-4F59-A855-6C8D7F04A9CB}"/>
+    <hyperlink ref="C66" r:id="rId13" xr:uid="{39806928-F33B-46B8-90D4-C78E1A599D1A}"/>
+    <hyperlink ref="A63" r:id="rId14" display="https://www.cnblogs.com/afei1013/p/12776776.html" xr:uid="{13E2C8BD-362F-48E0-A4E5-B27DC8F7C682}"/>
+    <hyperlink ref="A64" r:id="rId15" xr:uid="{02FDDEC7-7326-4B70-92EF-E936D9E789F8}"/>
+    <hyperlink ref="A68" r:id="rId16" xr:uid="{DACBAE8D-D65C-4EB5-AC64-4E3E2DD51C45}"/>
+    <hyperlink ref="C64" r:id="rId17" xr:uid="{39AD7821-23D8-4244-84FB-D727985E0898}"/>
+    <hyperlink ref="C67" r:id="rId18" xr:uid="{2F8173E3-02A5-45CC-A8E2-87BDCBA5B193}"/>
+    <hyperlink ref="C68" r:id="rId19" xr:uid="{C5059483-22EE-4546-B16F-17C7C878E2F9}"/>
+    <hyperlink ref="C69" r:id="rId20" xr:uid="{4BBA06A8-4C03-4623-91DE-E0A536F59A31}"/>
+    <hyperlink ref="A67" r:id="rId21" xr:uid="{AC6DDE25-8F77-4B00-8254-BB6147B99E72}"/>
+    <hyperlink ref="C70" r:id="rId22" xr:uid="{08B62602-1DAB-4EC9-8110-B1B6F169CDFD}"/>
+    <hyperlink ref="A71" r:id="rId23" xr:uid="{071336B5-9F29-4D9E-B83B-DA244B81FEA1}"/>
+    <hyperlink ref="A72" r:id="rId24" xr:uid="{42BC170C-A8C1-452F-AED8-1FAFB50385D5}"/>
+    <hyperlink ref="C71" r:id="rId25" xr:uid="{80EF147C-20C9-4732-97EE-3544DB2D81EB}"/>
+    <hyperlink ref="C72" r:id="rId26" xr:uid="{B27E13D5-3706-4D82-8F98-EE98A71873CD}"/>
+    <hyperlink ref="A73" r:id="rId27" xr:uid="{3BA83957-4AD5-4CF1-8DBB-B5BCDD7840E2}"/>
+    <hyperlink ref="A74" r:id="rId28" xr:uid="{C407CB26-3756-4702-AD53-44421C9460C0}"/>
+    <hyperlink ref="A77" r:id="rId29" xr:uid="{51C5D3E0-3AC7-4BF0-8165-A1B161F58BFE}"/>
+    <hyperlink ref="C79" r:id="rId30" display="https://www.cnblogs.com/xuwc/p/13873611.html" xr:uid="{8310AD87-9715-41AB-B727-C67D7713798E}"/>
+    <hyperlink ref="C77" r:id="rId31" xr:uid="{8FAE83ED-A20A-4B8C-9790-B4E637DF52A5}"/>
+    <hyperlink ref="C78" r:id="rId32" xr:uid="{E2E681A0-C0B7-4834-87C8-B781881D48B2}"/>
+    <hyperlink ref="C80" r:id="rId33" xr:uid="{8DC47E00-2817-46B5-9CA7-733AD498CB0B}"/>
+    <hyperlink ref="A78" r:id="rId34" xr:uid="{3F184B9A-796D-4871-880D-8880DADDA714}"/>
+    <hyperlink ref="A79" r:id="rId35" xr:uid="{DC585F72-5769-4E65-8E58-81574B5EF71E}"/>
+    <hyperlink ref="A82" r:id="rId36" xr:uid="{1C0A9984-5DA8-4418-A646-FAD9BCB556DD}"/>
+    <hyperlink ref="A83" r:id="rId37" xr:uid="{D4A91A7E-824E-460C-A89E-B9B927A6BF68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24070C25-A6E3-4C70-844D-DB58F8DD24FB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F0635A-4CE1-4349-B9BF-D21A731B4388}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/学习日记.xlsx
+++ b/学习日记.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\学习\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CA722E-402B-4231-BD87-E199F7002673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{441C2856-F0A2-47AF-BA65-079B73630BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{81A5690A-08F3-4C44-A3A9-234CEDFE714D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>20日</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,9 +310,6 @@
     <t>Spring五个事务隔离级别和七个事务传播行为</t>
   </si>
   <si>
-    <t>MVCC 原理</t>
-  </si>
-  <si>
     <t>MySQL——事务(Transaction)详解</t>
   </si>
   <si>
@@ -331,6 +328,17 @@
   </si>
   <si>
     <t>Calendar获取上一月份日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[delete 多表删除的使用（连表删除）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL 存储过程</t>
+  </si>
+  <si>
+    <t>Mysql常用命令行大全</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,10 +907,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFA94F6F-69CE-44EB-A7B9-7C349218D4B8}">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1245,7 +1253,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>75</v>
@@ -1253,16 +1261,12 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>73</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C79" s="8"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C80" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="C80" s="1"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
@@ -1271,12 +1275,12 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
@@ -1286,12 +1290,37 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1326,17 +1355,19 @@
     <hyperlink ref="A73" r:id="rId27" xr:uid="{3BA83957-4AD5-4CF1-8DBB-B5BCDD7840E2}"/>
     <hyperlink ref="A74" r:id="rId28" xr:uid="{C407CB26-3756-4702-AD53-44421C9460C0}"/>
     <hyperlink ref="A77" r:id="rId29" xr:uid="{51C5D3E0-3AC7-4BF0-8165-A1B161F58BFE}"/>
-    <hyperlink ref="C79" r:id="rId30" display="https://www.cnblogs.com/xuwc/p/13873611.html" xr:uid="{8310AD87-9715-41AB-B727-C67D7713798E}"/>
-    <hyperlink ref="C77" r:id="rId31" xr:uid="{8FAE83ED-A20A-4B8C-9790-B4E637DF52A5}"/>
-    <hyperlink ref="C78" r:id="rId32" xr:uid="{E2E681A0-C0B7-4834-87C8-B781881D48B2}"/>
-    <hyperlink ref="C80" r:id="rId33" xr:uid="{8DC47E00-2817-46B5-9CA7-733AD498CB0B}"/>
-    <hyperlink ref="A78" r:id="rId34" xr:uid="{3F184B9A-796D-4871-880D-8880DADDA714}"/>
-    <hyperlink ref="A79" r:id="rId35" xr:uid="{DC585F72-5769-4E65-8E58-81574B5EF71E}"/>
-    <hyperlink ref="A82" r:id="rId36" xr:uid="{1C0A9984-5DA8-4418-A646-FAD9BCB556DD}"/>
-    <hyperlink ref="A83" r:id="rId37" xr:uid="{D4A91A7E-824E-460C-A89E-B9B927A6BF68}"/>
+    <hyperlink ref="C77" r:id="rId30" xr:uid="{8FAE83ED-A20A-4B8C-9790-B4E637DF52A5}"/>
+    <hyperlink ref="C78" r:id="rId31" xr:uid="{E2E681A0-C0B7-4834-87C8-B781881D48B2}"/>
+    <hyperlink ref="A78" r:id="rId32" xr:uid="{3F184B9A-796D-4871-880D-8880DADDA714}"/>
+    <hyperlink ref="A79" r:id="rId33" xr:uid="{DC585F72-5769-4E65-8E58-81574B5EF71E}"/>
+    <hyperlink ref="A82" r:id="rId34" xr:uid="{1C0A9984-5DA8-4418-A646-FAD9BCB556DD}"/>
+    <hyperlink ref="A83" r:id="rId35" xr:uid="{D4A91A7E-824E-460C-A89E-B9B927A6BF68}"/>
+    <hyperlink ref="A90" r:id="rId36" xr:uid="{A5E62D60-3AD7-41F1-B868-013AAF8CB4A0}"/>
+    <hyperlink ref="A91" r:id="rId37" xr:uid="{0D4B3ED7-C65A-41C2-9C49-864969DF303C}"/>
+    <hyperlink ref="A92" r:id="rId38" display="[Mysql常用命令行大全]" xr:uid="{F211E240-1256-4231-8A61-59ADECE3EA44}"/>
+    <hyperlink ref="A93" r:id="rId39" xr:uid="{48E35CDA-5A5E-4CFA-B721-E14CD6BFBE72}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId38"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 
